--- a/Ca_phe/Web_Phong/Mau_don_hang.xlsx
+++ b/Ca_phe/Web_Phong/Mau_don_hang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9144"/>
+    <workbookView windowWidth="11520" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Đơn hàng cà phê Mộc</t>
   </si>
@@ -25,37 +25,16 @@
     <t>Thành tiền:</t>
   </si>
   <si>
-    <t>Khách hàng đặt đơn:</t>
-  </si>
-  <si>
     <t>Nhân viên bán hàng:</t>
   </si>
   <si>
     <t>Họ tên người nhận hàng:</t>
   </si>
   <si>
-    <t>Danh Sách Sản Phẩm</t>
+    <t>Danh sách sản phẩm:</t>
   </si>
   <si>
-    <t>Ghi Chú</t>
-  </si>
-  <si>
-    <t>ID Khách Hàng</t>
-  </si>
-  <si>
-    <t>ID Nhân Viên</t>
-  </si>
-  <si>
-    <t>Tên Khách Hàng</t>
-  </si>
-  <si>
-    <t>Thời Gian Lập</t>
-  </si>
-  <si>
-    <t>Tổng Cộng</t>
-  </si>
-  <si>
-    <t>Status</t>
+    <t>Ghi chú:</t>
   </si>
 </sst>
 </file>
@@ -691,7 +670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -708,7 +687,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1250,7 +1232,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D16" sqref="D13 D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1312,60 +1294,38 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>13</v>
-      </c>
+    <row r="9" spans="4:8">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="7"/>
+      <c r="B10" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
